--- a/Analysis/descriptive statistics.xlsx
+++ b/Analysis/descriptive statistics.xlsx
@@ -15,18 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
-  <si>
-    <t>smoker</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+  <si>
+    <t>sex</t>
   </si>
   <si>
     <t>total_bill</t>
   </si>
   <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>Female</t>
   </si>
   <si>
     <t>count</t>
@@ -53,7 +50,7 @@
     <t>max</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Male</t>
   </si>
 </sst>
 </file>
@@ -402,7 +399,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H18"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,7 +407,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,266 +415,147 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s"/>
-      <c r="H2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="n">
-        <v>140</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>19.03271428571428</v>
-      </c>
-      <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.988169014084507</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18.14282051282051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>8.139114002906732</v>
-      </c>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.391065013556471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>8.184542906646808</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s"/>
-      <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s"/>
-      <c r="F8" s="1" t="n"/>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s"/>
-      <c r="F9" s="1" t="n"/>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s"/>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="n">
-        <v>48.33</v>
-      </c>
-      <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>89</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>20.4976404494382</v>
-      </c>
-      <c r="F12" s="1" t="n"/>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.023913043478261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>20.68027972027972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>9.450621915859669</v>
-      </c>
-      <c r="F13" s="1" t="n"/>
-      <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1.40141447894833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>8.849338078537162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F14" s="1" t="n"/>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s"/>
-      <c r="F15" s="1" t="n"/>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:4">
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s"/>
-      <c r="F16" s="1" t="n"/>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:4">
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s"/>
-      <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:4">
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
-        <v>45.35</v>
-      </c>
-      <c r="F18" s="1" t="n"/>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
+        <v>48.33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="F11:F18"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Analysis/descriptive statistics.xlsx
+++ b/Analysis/descriptive statistics.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>total_bill</t>
-  </si>
-  <si>
-    <t>Female</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+  <si>
+    <t>Heart_rate</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
   <si>
     <t>count</t>
@@ -48,31 +50,32 @@
   </si>
   <si>
     <t>max</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -87,26 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,162 +406,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s"/>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>346.6944</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>37.59331616807462</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>18.14282051282051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="s">
+      <c r="D11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
-        <v>8.184542906646808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="s">
+      <c r="D12">
+        <v>343.1428571428572</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
-        <v>3.07</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="s">
+      <c r="D13">
+        <v>52.99480530963552</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="s">
+      <c r="D14">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="s">
+      <c r="D15">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="s">
+      <c r="D16">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="n">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1" t="s">
+      <c r="D17">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="n">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.68027972027972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>8.849338078537162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" t="n">
-        <v>48.33</v>
+      <c r="D18">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -557,6 +575,6 @@
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="B11:B18"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>